--- a/Test Results - FInal.xlsx
+++ b/Test Results - FInal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitraghavan/Courses/FinalProject/Experiment Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97D7FA09-4D7A-264D-B1EC-1DE10473B779}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50CA3367-03AA-9A49-815C-DADFC7002A9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="7640" windowWidth="28800" windowHeight="16240" xr2:uid="{5E3F85AB-2881-4042-833C-54B432D88D44}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="5" xr2:uid="{5E3F85AB-2881-4042-833C-54B432D88D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="8" r:id="rId1"/>
@@ -187,17 +187,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2733,13 +2733,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.124207199999999</c:v>
+                  <c:v>9.6551963806152337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.036230400000008</c:v>
+                  <c:v>93.494635009765631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>806.62879759999998</c:v>
+                  <c:v>769.26116714477541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12361,7 +12361,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
@@ -18601,13 +18601,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.488376000000001</c:v>
+                  <c:v>10.956169128417969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>504.09913039999998</c:v>
+                  <c:v>480.74639358520506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2845.5648919999999</c:v>
+                  <c:v>2713.7421531677246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19488,13 +19488,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.260608</c:v>
+                  <c:v>10.73895263671875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.86297039999999</c:v>
+                  <c:v>487.19689407348631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5487.7731583999994</c:v>
+                  <c:v>5233.5483154296871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -39884,7 +39884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D338D9D-92AA-E341-8C45-7CC77E74979C}">
   <dimension ref="A22:K72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -39894,22 +39894,22 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -39917,22 +39917,22 @@
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11" t="s">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -39940,22 +39940,22 @@
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -39969,7 +39969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56355B6-5145-E640-8E97-3FFAF8720D07}">
   <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q42" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39999,36 +40001,36 @@
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8">
+      <c r="C1" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>4</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10">
         <v>5</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
@@ -40107,7 +40109,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -40182,10 +40184,10 @@
         <f>SUM(T3:T32)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -40235,15 +40237,15 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f>AVERAGE(C4,F4,I4,L4,O4)</f>
+        <f t="shared" ref="R4:R33" si="0">AVERAGE(C4,F4,I4,L4,O4)</f>
         <v>5836</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(D4,G4,J4,M4,P4)</f>
+        <f t="shared" ref="S4:S33" si="1">AVERAGE(D4,G4,J4,M4,P4)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T32" si="0">AVERAGE(E4,H4,K4,N4,Q4)</f>
+        <f t="shared" ref="T4:T32" si="2">AVERAGE(E4,H4,K4,N4,Q4)</f>
         <v>0</v>
       </c>
       <c r="U4" s="5">
@@ -40251,10 +40253,10 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -40304,15 +40306,15 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <f>AVERAGE(C5,F5,I5,L5,O5)</f>
+        <f t="shared" si="0"/>
         <v>5833</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(D5,G5,J5,M5,P5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" s="5">
@@ -40320,10 +40322,10 @@
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="7"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -40373,15 +40375,15 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <f>AVERAGE(C6,F6,I6,L6,O6)</f>
+        <f t="shared" si="0"/>
         <v>5829</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(D6,G6,J6,M6,P6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U6" s="5">
@@ -40389,10 +40391,10 @@
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -40442,15 +40444,15 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <f>AVERAGE(C7,F7,I7,L7,O7)</f>
+        <f t="shared" si="0"/>
         <v>5832</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(D7,G7,J7,M7,P7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="5">
@@ -40458,10 +40460,10 @@
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -40511,15 +40513,15 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <f>AVERAGE(C8,F8,I8,L8,O8)</f>
+        <f t="shared" si="0"/>
         <v>5825</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(D8,G8,J8,M8,P8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="5">
@@ -40527,10 +40529,10 @@
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>7</v>
       </c>
@@ -40580,15 +40582,15 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <f>AVERAGE(C9,F9,I9,L9,O9)</f>
+        <f t="shared" si="0"/>
         <v>5840</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(D9,G9,J9,M9,P9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="5">
@@ -40596,10 +40598,10 @@
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10">
         <v>8</v>
       </c>
@@ -40649,15 +40651,15 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <f>AVERAGE(C10,F10,I10,L10,O10)</f>
+        <f t="shared" si="0"/>
         <v>5839</v>
       </c>
       <c r="S10">
-        <f>AVERAGE(D10,G10,J10,M10,P10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="5">
@@ -40665,10 +40667,10 @@
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -40718,15 +40720,15 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <f>AVERAGE(C11,F11,I11,L11,O11)</f>
+        <f t="shared" si="0"/>
         <v>5836</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(D11,G11,J11,M11,P11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="5">
@@ -40734,10 +40736,10 @@
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -40787,15 +40789,15 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <f>AVERAGE(C12,F12,I12,L12,O12)</f>
+        <f t="shared" si="0"/>
         <v>5825</v>
       </c>
       <c r="S12">
-        <f>AVERAGE(D12,G12,J12,M12,P12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="5">
@@ -40803,10 +40805,10 @@
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13">
         <v>11</v>
       </c>
@@ -40856,15 +40858,15 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <f>AVERAGE(C13,F13,I13,L13,O13)</f>
+        <f t="shared" si="0"/>
         <v>5830</v>
       </c>
       <c r="S13">
-        <f>AVERAGE(D13,G13,J13,M13,P13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13" s="5">
@@ -40872,10 +40874,10 @@
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14">
         <v>12</v>
       </c>
@@ -40925,15 +40927,15 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <f>AVERAGE(C14,F14,I14,L14,O14)</f>
+        <f t="shared" si="0"/>
         <v>5825</v>
       </c>
       <c r="S14">
-        <f>AVERAGE(D14,G14,J14,M14,P14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14" s="5">
@@ -40941,10 +40943,10 @@
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15">
         <v>13</v>
       </c>
@@ -40994,15 +40996,15 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <f>AVERAGE(C15,F15,I15,L15,O15)</f>
+        <f t="shared" si="0"/>
         <v>5820</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(D15,G15,J15,M15,P15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="5">
@@ -41010,10 +41012,10 @@
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16">
         <v>14</v>
       </c>
@@ -41063,15 +41065,15 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <f>AVERAGE(C16,F16,I16,L16,O16)</f>
+        <f t="shared" si="0"/>
         <v>5832</v>
       </c>
       <c r="S16">
-        <f>AVERAGE(D16,G16,J16,M16,P16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="5">
@@ -41079,10 +41081,10 @@
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17">
         <v>15</v>
       </c>
@@ -41132,15 +41134,15 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <f>AVERAGE(C17,F17,I17,L17,O17)</f>
+        <f t="shared" si="0"/>
         <v>5829</v>
       </c>
       <c r="S17">
-        <f>AVERAGE(D17,G17,J17,M17,P17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U17" s="5">
@@ -41148,10 +41150,10 @@
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18">
         <v>16</v>
       </c>
@@ -41201,15 +41203,15 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <f>AVERAGE(C18,F18,I18,L18,O18)</f>
+        <f t="shared" si="0"/>
         <v>5834</v>
       </c>
       <c r="S18">
-        <f>AVERAGE(D18,G18,J18,M18,P18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U18" s="5">
@@ -41217,10 +41219,10 @@
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19">
         <v>17</v>
       </c>
@@ -41270,15 +41272,15 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <f>AVERAGE(C19,F19,I19,L19,O19)</f>
+        <f t="shared" si="0"/>
         <v>5826</v>
       </c>
       <c r="S19">
-        <f>AVERAGE(D19,G19,J19,M19,P19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U19" s="5">
@@ -41286,10 +41288,10 @@
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -41339,15 +41341,15 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <f>AVERAGE(C20,F20,I20,L20,O20)</f>
+        <f t="shared" si="0"/>
         <v>5831</v>
       </c>
       <c r="S20">
-        <f>AVERAGE(D20,G20,J20,M20,P20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="5">
@@ -41355,10 +41357,10 @@
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21">
         <v>19</v>
       </c>
@@ -41408,15 +41410,15 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <f>AVERAGE(C21,F21,I21,L21,O21)</f>
+        <f t="shared" si="0"/>
         <v>5839</v>
       </c>
       <c r="S21">
-        <f>AVERAGE(D21,G21,J21,M21,P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="5">
@@ -41424,10 +41426,10 @@
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22">
         <v>20</v>
       </c>
@@ -41477,15 +41479,15 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <f>AVERAGE(C22,F22,I22,L22,O22)</f>
+        <f t="shared" si="0"/>
         <v>5825</v>
       </c>
       <c r="S22">
-        <f>AVERAGE(D22,G22,J22,M22,P22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="5">
@@ -41493,10 +41495,10 @@
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23">
         <v>21</v>
       </c>
@@ -41546,15 +41548,15 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <f>AVERAGE(C23,F23,I23,L23,O23)</f>
+        <f t="shared" si="0"/>
         <v>5814</v>
       </c>
       <c r="S23">
-        <f>AVERAGE(D23,G23,J23,M23,P23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="5">
@@ -41562,10 +41564,10 @@
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24">
         <v>22</v>
       </c>
@@ -41615,15 +41617,15 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <f>AVERAGE(C24,F24,I24,L24,O24)</f>
+        <f t="shared" si="0"/>
         <v>5811</v>
       </c>
       <c r="S24">
-        <f>AVERAGE(D24,G24,J24,M24,P24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="5">
@@ -41631,10 +41633,10 @@
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25">
         <v>23</v>
       </c>
@@ -41684,15 +41686,15 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <f>AVERAGE(C25,F25,I25,L25,O25)</f>
+        <f t="shared" si="0"/>
         <v>5819</v>
       </c>
       <c r="S25">
-        <f>AVERAGE(D25,G25,J25,M25,P25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="5">
@@ -41700,10 +41702,10 @@
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="11"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26">
         <v>24</v>
       </c>
@@ -41753,15 +41755,15 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <f>AVERAGE(C26,F26,I26,L26,O26)</f>
+        <f t="shared" si="0"/>
         <v>5836</v>
       </c>
       <c r="S26">
-        <f>AVERAGE(D26,G26,J26,M26,P26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="5">
@@ -41769,10 +41771,10 @@
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27">
         <v>25</v>
       </c>
@@ -41822,15 +41824,15 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <f>AVERAGE(C27,F27,I27,L27,O27)</f>
+        <f t="shared" si="0"/>
         <v>5820</v>
       </c>
       <c r="S27">
-        <f>AVERAGE(D27,G27,J27,M27,P27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="5">
@@ -41838,10 +41840,10 @@
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="11"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28">
         <v>26</v>
       </c>
@@ -41891,15 +41893,15 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <f>AVERAGE(C28,F28,I28,L28,O28)</f>
+        <f t="shared" si="0"/>
         <v>5830</v>
       </c>
       <c r="S28">
-        <f>AVERAGE(D28,G28,J28,M28,P28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="5">
@@ -41907,10 +41909,10 @@
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29">
         <v>27</v>
       </c>
@@ -41960,15 +41962,15 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(C29,F29,I29,L29,O29)</f>
+        <f t="shared" si="0"/>
         <v>5836</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(D29,G29,J29,M29,P29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="5">
@@ -41976,10 +41978,10 @@
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="11"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30">
         <v>28</v>
       </c>
@@ -42029,15 +42031,15 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <f>AVERAGE(C30,F30,I30,L30,O30)</f>
+        <f t="shared" si="0"/>
         <v>5835</v>
       </c>
       <c r="S30">
-        <f>AVERAGE(D30,G30,J30,M30,P30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="5">
@@ -42045,10 +42047,10 @@
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="11"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31">
         <v>29</v>
       </c>
@@ -42098,15 +42100,15 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <f>AVERAGE(C31,F31,I31,L31,O31)</f>
+        <f t="shared" si="0"/>
         <v>5818</v>
       </c>
       <c r="S31">
-        <f>AVERAGE(D31,G31,J31,M31,P31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U31" s="5">
@@ -42114,10 +42116,10 @@
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="11"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32">
         <v>30</v>
       </c>
@@ -42167,15 +42169,15 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <f>AVERAGE(C32,F32,I32,L32,O32)</f>
+        <f t="shared" si="0"/>
         <v>5819</v>
       </c>
       <c r="S32">
-        <f>AVERAGE(D32,G32,J32,M32,P32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U32" s="5">
@@ -42183,10 +42185,10 @@
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B33">
@@ -42238,11 +42240,11 @@
         <v>9280</v>
       </c>
       <c r="R33">
-        <f>AVERAGE(C33,F33,I33,L33,O33)</f>
+        <f t="shared" si="0"/>
         <v>5856</v>
       </c>
       <c r="S33">
-        <f>AVERAGE(D33,G33,J33,M33,P33)</f>
+        <f t="shared" si="1"/>
         <v>375040</v>
       </c>
       <c r="T33">
@@ -42254,20 +42256,20 @@
         <v>5843.7333333333336</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" ref="V33:W33" si="1">SUM(S33:S62)</f>
+        <f t="shared" ref="V33:W33" si="3">SUM(S33:S62)</f>
         <v>11488376</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>286350.79999999993</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="11">
         <f>((U33-U3)/U3)*100</f>
         <v>0.26537335285505959</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34">
         <v>32</v>
       </c>
@@ -42317,15 +42319,15 @@
         <v>9280</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R62" si="2">AVERAGE(C34,F34,I34,L34,O34)</f>
+        <f t="shared" ref="R34:R62" si="4">AVERAGE(C34,F34,I34,L34,O34)</f>
         <v>5828</v>
       </c>
       <c r="S34">
-        <f>AVERAGE(D34,G34,J34,M34,P34)</f>
+        <f t="shared" ref="S34:S66" si="5">AVERAGE(D34,G34,J34,M34,P34)</f>
         <v>372480</v>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34:T62" si="3">AVERAGE(E34,H34,K34,N34,Q34)</f>
+        <f t="shared" ref="T34:T62" si="6">AVERAGE(E34,H34,K34,N34,Q34)</f>
         <v>9344</v>
       </c>
       <c r="U34" s="5">
@@ -42333,10 +42335,10 @@
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="11"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35">
         <v>33</v>
       </c>
@@ -42386,15 +42388,15 @@
         <v>9440</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5835</v>
       </c>
       <c r="S35">
-        <f>AVERAGE(D35,G35,J35,M35,P35)</f>
+        <f t="shared" si="5"/>
         <v>372976</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U35" s="5">
@@ -42402,10 +42404,10 @@
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="11"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36">
         <v>34</v>
       </c>
@@ -42455,15 +42457,15 @@
         <v>9280</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5835</v>
       </c>
       <c r="S36">
-        <f>AVERAGE(D36,G36,J36,M36,P36)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U36" s="5">
@@ -42471,10 +42473,10 @@
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="11"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37">
         <v>35</v>
       </c>
@@ -42524,15 +42526,15 @@
         <v>9280</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5843</v>
       </c>
       <c r="S37">
-        <f>AVERAGE(D37,G37,J37,M37,P37)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U37" s="5">
@@ -42540,10 +42542,10 @@
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="11"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38">
         <v>36</v>
       </c>
@@ -42593,15 +42595,15 @@
         <v>9280</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5847</v>
       </c>
       <c r="S38">
-        <f>AVERAGE(D38,G38,J38,M38,P38)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U38" s="5">
@@ -42609,10 +42611,10 @@
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39">
         <v>37</v>
       </c>
@@ -42662,15 +42664,15 @@
         <v>9440</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5854</v>
       </c>
       <c r="S39">
-        <f>AVERAGE(D39,G39,J39,M39,P39)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U39" s="5">
@@ -42678,10 +42680,10 @@
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="11"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40">
         <v>38</v>
       </c>
@@ -42731,15 +42733,15 @@
         <v>9280</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5854</v>
       </c>
       <c r="S40">
-        <f>AVERAGE(D40,G40,J40,M40,P40)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U40" s="5">
@@ -42747,10 +42749,10 @@
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="11"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41">
         <v>39</v>
       </c>
@@ -42800,15 +42802,15 @@
         <v>9440</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5836</v>
       </c>
       <c r="S41">
-        <f>AVERAGE(D41,G41,J41,M41,P41)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U41" s="5">
@@ -42816,10 +42818,10 @@
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="11"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42">
         <v>40</v>
       </c>
@@ -42869,15 +42871,15 @@
         <v>9280</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5839</v>
       </c>
       <c r="S42">
-        <f>AVERAGE(D42,G42,J42,M42,P42)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U42" s="5">
@@ -42885,10 +42887,10 @@
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="11"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43">
         <v>41</v>
       </c>
@@ -42938,15 +42940,15 @@
         <v>9440</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5849</v>
       </c>
       <c r="S43">
-        <f>AVERAGE(D43,G43,J43,M43,P43)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U43" s="5">
@@ -42954,10 +42956,10 @@
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="11"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44">
         <v>42</v>
       </c>
@@ -43007,15 +43009,15 @@
         <v>9280</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5841</v>
       </c>
       <c r="S44">
-        <f>AVERAGE(D44,G44,J44,M44,P44)</f>
+        <f t="shared" si="5"/>
         <v>372480</v>
       </c>
       <c r="T44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9335.6</v>
       </c>
       <c r="U44" s="5">
@@ -43023,10 +43025,10 @@
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="11"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45">
         <v>43</v>
       </c>
@@ -43076,15 +43078,15 @@
         <v>9440</v>
       </c>
       <c r="R45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5839</v>
       </c>
       <c r="S45">
-        <f>AVERAGE(D45,G45,J45,M45,P45)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U45" s="5">
@@ -43092,10 +43094,10 @@
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="7"/>
+      <c r="X45" s="11"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46">
         <v>44</v>
       </c>
@@ -43145,15 +43147,15 @@
         <v>9280</v>
       </c>
       <c r="R46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5835</v>
       </c>
       <c r="S46">
-        <f>AVERAGE(D46,G46,J46,M46,P46)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U46" s="5">
@@ -43161,10 +43163,10 @@
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="11"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47">
         <v>45</v>
       </c>
@@ -43214,15 +43216,15 @@
         <v>9440</v>
       </c>
       <c r="R47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5844</v>
       </c>
       <c r="S47">
-        <f>AVERAGE(D47,G47,J47,M47,P47)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U47" s="5">
@@ -43230,10 +43232,10 @@
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="11"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48">
         <v>46</v>
       </c>
@@ -43283,15 +43285,15 @@
         <v>9280</v>
       </c>
       <c r="R48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5843</v>
       </c>
       <c r="S48">
-        <f>AVERAGE(D48,G48,J48,M48,P48)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U48" s="5">
@@ -43299,10 +43301,10 @@
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="7"/>
+      <c r="X48" s="11"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49">
         <v>47</v>
       </c>
@@ -43352,15 +43354,15 @@
         <v>9440</v>
       </c>
       <c r="R49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5832</v>
       </c>
       <c r="S49">
-        <f>AVERAGE(D49,G49,J49,M49,P49)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U49" s="5">
@@ -43368,10 +43370,10 @@
       </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="7"/>
+      <c r="X49" s="11"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50">
         <v>48</v>
       </c>
@@ -43421,15 +43423,15 @@
         <v>9280</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5852</v>
       </c>
       <c r="S50">
-        <f>AVERAGE(D50,G50,J50,M50,P50)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U50" s="5">
@@ -43437,10 +43439,10 @@
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="7"/>
+      <c r="X50" s="11"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51">
         <v>49</v>
       </c>
@@ -43490,15 +43492,15 @@
         <v>9440</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5837</v>
       </c>
       <c r="S51">
-        <f>AVERAGE(D51,G51,J51,M51,P51)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U51" s="5">
@@ -43506,10 +43508,10 @@
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="7"/>
+      <c r="X51" s="11"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52">
         <v>50</v>
       </c>
@@ -43559,15 +43561,15 @@
         <v>9440</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5863</v>
       </c>
       <c r="S52">
-        <f>AVERAGE(D52,G52,J52,M52,P52)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U52" s="5">
@@ -43575,12 +43577,12 @@
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="7"/>
+      <c r="X52" s="11"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53">
         <v>51</v>
       </c>
@@ -43630,15 +43632,15 @@
         <v>9280</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5849</v>
       </c>
       <c r="S53">
-        <f>AVERAGE(D53,G53,J53,M53,P53)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U53" s="5">
@@ -43646,13 +43648,13 @@
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="7"/>
+      <c r="X53" s="11"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54">
         <v>52</v>
       </c>
@@ -43702,15 +43704,15 @@
         <v>9440</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5843</v>
       </c>
       <c r="S54">
-        <f>AVERAGE(D54,G54,J54,M54,P54)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U54" s="5">
@@ -43718,10 +43720,10 @@
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="7"/>
+      <c r="X54" s="11"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55">
         <v>53</v>
       </c>
@@ -43771,15 +43773,15 @@
         <v>9280</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5848</v>
       </c>
       <c r="S55">
-        <f>AVERAGE(D55,G55,J55,M55,P55)</f>
+        <f t="shared" si="5"/>
         <v>376320</v>
       </c>
       <c r="T55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9408</v>
       </c>
       <c r="U55" s="5">
@@ -43787,12 +43789,12 @@
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="7"/>
+      <c r="X55" s="11"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56">
         <v>54</v>
       </c>
@@ -43842,15 +43844,15 @@
         <v>9440</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5855</v>
       </c>
       <c r="S56">
-        <f>AVERAGE(D56,G56,J56,M56,P56)</f>
+        <f t="shared" si="5"/>
         <v>371960</v>
       </c>
       <c r="T56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9312</v>
       </c>
       <c r="U56" s="5">
@@ -43858,7 +43860,7 @@
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="11"/>
       <c r="AB56" t="s">
         <v>2</v>
       </c>
@@ -43870,7 +43872,7 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
       <c r="B57">
         <v>55</v>
       </c>
@@ -43920,15 +43922,15 @@
         <v>9280</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5846</v>
       </c>
       <c r="S57">
-        <f>AVERAGE(D57,G57,J57,M57,P57)</f>
+        <f t="shared" si="5"/>
         <v>375040</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9376</v>
       </c>
       <c r="U57" s="5">
@@ -43936,12 +43938,12 @@
       </c>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="11"/>
       <c r="AB57" t="s">
         <v>3</v>
       </c>
       <c r="AC57">
-        <f>0/1000</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD57">
@@ -43949,7 +43951,7 @@
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58">
         <v>56</v>
       </c>
@@ -43999,15 +44001,15 @@
         <v>9440</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5847</v>
       </c>
       <c r="S58">
-        <f>AVERAGE(D58,G58,J58,M58,P58)</f>
+        <f t="shared" si="5"/>
         <v>376320</v>
       </c>
       <c r="T58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9408</v>
       </c>
       <c r="U58" s="5">
@@ -44015,20 +44017,20 @@
       </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="11"/>
       <c r="AB58" t="s">
         <v>5</v>
       </c>
       <c r="AC58">
-        <f>11488376/1000000</f>
-        <v>11.488376000000001</v>
+        <f>11488376/(1024*1024)</f>
+        <v>10.956169128417969</v>
       </c>
       <c r="AD58">
         <v>286350.79999999993</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59">
         <v>57</v>
       </c>
@@ -44078,15 +44080,15 @@
         <v>9280</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5845</v>
       </c>
       <c r="S59">
-        <f>AVERAGE(D59,G59,J59,M59,P59)</f>
+        <f t="shared" si="5"/>
         <v>372480</v>
       </c>
       <c r="T59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9312</v>
       </c>
       <c r="U59" s="5">
@@ -44094,20 +44096,20 @@
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="11"/>
       <c r="AB59" t="s">
         <v>22</v>
       </c>
       <c r="AC59">
-        <f>504099130.4/1000000</f>
-        <v>504.09913039999998</v>
+        <f>504099130.4/(1024*1024)</f>
+        <v>480.74639358520506</v>
       </c>
       <c r="AD59">
         <v>8150816.7999999998</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60">
         <v>58</v>
       </c>
@@ -44157,15 +44159,15 @@
         <v>9280</v>
       </c>
       <c r="R60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5844</v>
       </c>
       <c r="S60">
-        <f>AVERAGE(D60,G60,J60,M60,P60)</f>
+        <f t="shared" si="5"/>
         <v>373760</v>
       </c>
       <c r="T60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9344</v>
       </c>
       <c r="U60" s="5">
@@ -44173,20 +44175,20 @@
       </c>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="7"/>
+      <c r="X60" s="11"/>
       <c r="AB60" t="s">
         <v>23</v>
       </c>
       <c r="AC60">
-        <f>2845564892/1000000</f>
-        <v>2845.5648919999999</v>
+        <f>2845564892/(1024*1024)</f>
+        <v>2713.7421531677246</v>
       </c>
       <c r="AD60">
         <v>5565893</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
       <c r="B61">
         <v>59</v>
       </c>
@@ -44236,15 +44238,15 @@
         <v>9223</v>
       </c>
       <c r="R61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5853</v>
       </c>
       <c r="S61">
-        <f>AVERAGE(D61,G61,J61,M61,P61)</f>
+        <f t="shared" si="5"/>
         <v>374584</v>
       </c>
       <c r="T61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9364.6</v>
       </c>
       <c r="U61" s="5">
@@ -44252,10 +44254,10 @@
       </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="11"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
       <c r="B62">
         <v>60</v>
       </c>
@@ -44305,15 +44307,15 @@
         <v>36493</v>
       </c>
       <c r="R62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5820</v>
       </c>
       <c r="S62">
-        <f>AVERAGE(D62,G62,J62,M62,P62)</f>
+        <f t="shared" si="5"/>
         <v>633176</v>
       </c>
       <c r="T62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14786.6</v>
       </c>
       <c r="U62" s="5">
@@ -44321,10 +44323,10 @@
       </c>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="11"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B63">
@@ -44376,15 +44378,15 @@
         <v>339046</v>
       </c>
       <c r="R63">
-        <f t="shared" ref="R63:R92" si="4">AVERAGE(C63,F63,I63,L63,O33)</f>
+        <f t="shared" ref="R63:R92" si="7">AVERAGE(C63,F63,I63,L63,O33)</f>
         <v>5779</v>
       </c>
       <c r="S63">
-        <f>AVERAGE(D63,G63,J63,M63,P63)</f>
+        <f t="shared" si="5"/>
         <v>15050200</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:T92" si="5">AVERAGE(E63,H63,K63,N63,Q33)</f>
+        <f t="shared" ref="T63:T92" si="8">AVERAGE(E63,H63,K63,N63,Q33)</f>
         <v>237072.2</v>
       </c>
       <c r="U63" s="5">
@@ -44392,20 +44394,20 @@
         <v>5770.4666666666662</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:W63" si="6">SUM(S63:S92)</f>
+        <f t="shared" ref="V63:W63" si="9">SUM(S63:S92)</f>
         <v>504099130.39999998</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8150816.7999999998</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="11">
         <f>((U63-U3)/U3)*100</f>
         <v>-0.99171852122987136</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64">
         <v>62</v>
       </c>
@@ -44455,15 +44457,15 @@
         <v>339062</v>
       </c>
       <c r="R64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5769</v>
       </c>
       <c r="S64">
-        <f>AVERAGE(D64,G64,J64,M64,P64)</f>
+        <f t="shared" si="5"/>
         <v>16770296</v>
       </c>
       <c r="T64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>271310.8</v>
       </c>
       <c r="U64" s="5">
@@ -44471,10 +44473,10 @@
       </c>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="11"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
       <c r="B65">
         <v>63</v>
       </c>
@@ -44524,15 +44526,15 @@
         <v>337807</v>
       </c>
       <c r="R65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5768</v>
       </c>
       <c r="S65">
-        <f>AVERAGE(D65,G65,J65,M65,P65)</f>
+        <f t="shared" si="5"/>
         <v>16746900</v>
       </c>
       <c r="T65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>271437.40000000002</v>
       </c>
       <c r="U65" s="5">
@@ -44540,10 +44542,10 @@
       </c>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="11"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
       <c r="B66">
         <v>64</v>
       </c>
@@ -44593,15 +44595,15 @@
         <v>340020</v>
       </c>
       <c r="R66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5765</v>
       </c>
       <c r="S66">
-        <f>AVERAGE(D66,G66,J66,M66,P66)</f>
+        <f t="shared" si="5"/>
         <v>16804900</v>
       </c>
       <c r="T66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>271976.8</v>
       </c>
       <c r="U66" s="5">
@@ -44609,10 +44611,10 @@
       </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="7"/>
+      <c r="X66" s="11"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67">
         <v>65</v>
       </c>
@@ -44662,15 +44664,15 @@
         <v>342242</v>
       </c>
       <c r="R67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5764</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S92" si="7">AVERAGE(D67,G67,J67,M67,P67)</f>
+        <f t="shared" ref="S67:S92" si="10">AVERAGE(D67,G67,J67,M67,P67)</f>
         <v>16854372</v>
       </c>
       <c r="T67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272754.2</v>
       </c>
       <c r="U67" s="5">
@@ -44678,10 +44680,10 @@
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="11"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
       <c r="B68">
         <v>66</v>
       </c>
@@ -44731,15 +44733,15 @@
         <v>341220</v>
       </c>
       <c r="R68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5782</v>
       </c>
       <c r="S68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16840348</v>
       </c>
       <c r="T68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272540.79999999999</v>
       </c>
       <c r="U68" s="5">
@@ -44747,10 +44749,10 @@
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="7"/>
+      <c r="X68" s="11"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
       <c r="B69">
         <v>67</v>
       </c>
@@ -44800,15 +44802,15 @@
         <v>341229</v>
       </c>
       <c r="R69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5777</v>
       </c>
       <c r="S69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16808596</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272059.59999999998</v>
       </c>
       <c r="U69" s="5">
@@ -44816,10 +44818,10 @@
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="7"/>
+      <c r="X69" s="11"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
       <c r="B70">
         <v>68</v>
       </c>
@@ -44869,15 +44871,15 @@
         <v>336404</v>
       </c>
       <c r="R70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5765</v>
       </c>
       <c r="S70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16797184</v>
       </c>
       <c r="T70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272706</v>
       </c>
       <c r="U70" s="5">
@@ -44885,10 +44887,10 @@
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="7"/>
+      <c r="X70" s="11"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
       <c r="B71">
         <v>69</v>
       </c>
@@ -44938,15 +44940,15 @@
         <v>342334</v>
       </c>
       <c r="R71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5766</v>
       </c>
       <c r="S71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16862996</v>
       </c>
       <c r="T71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272861.2</v>
       </c>
       <c r="U71" s="5">
@@ -44954,10 +44956,10 @@
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="7"/>
+      <c r="X71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
       <c r="B72">
         <v>70</v>
       </c>
@@ -45007,15 +45009,15 @@
         <v>338333</v>
       </c>
       <c r="R72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5774</v>
       </c>
       <c r="S72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16822348</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272629.2</v>
       </c>
       <c r="U72" s="5">
@@ -45023,10 +45025,10 @@
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="7"/>
+      <c r="X72" s="11"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9"/>
       <c r="B73">
         <v>71</v>
       </c>
@@ -45076,15 +45078,15 @@
         <v>341280</v>
       </c>
       <c r="R73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5772</v>
       </c>
       <c r="S73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16911864</v>
       </c>
       <c r="T73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273736.40000000002</v>
       </c>
       <c r="U73" s="5">
@@ -45092,10 +45094,10 @@
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="7"/>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
       <c r="B74">
         <v>72</v>
       </c>
@@ -45145,15 +45147,15 @@
         <v>339318</v>
       </c>
       <c r="R74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5771</v>
       </c>
       <c r="S74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16809400</v>
       </c>
       <c r="T74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272213.2</v>
       </c>
       <c r="U74" s="5">
@@ -45161,10 +45163,10 @@
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="7"/>
+      <c r="X74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75">
         <v>73</v>
       </c>
@@ -45214,15 +45216,15 @@
         <v>338895</v>
       </c>
       <c r="R75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5765</v>
       </c>
       <c r="S75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16800780</v>
       </c>
       <c r="T75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272366.8</v>
       </c>
       <c r="U75" s="5">
@@ -45230,10 +45232,10 @@
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="7"/>
+      <c r="X75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
       <c r="B76">
         <v>74</v>
       </c>
@@ -45283,15 +45285,15 @@
         <v>339813</v>
       </c>
       <c r="R76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5776</v>
       </c>
       <c r="S76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16909180</v>
       </c>
       <c r="T76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273942.40000000002</v>
       </c>
       <c r="U76" s="5">
@@ -45299,10 +45301,10 @@
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="7"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
       <c r="B77">
         <v>75</v>
       </c>
@@ -45352,15 +45354,15 @@
         <v>340798</v>
       </c>
       <c r="R77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5772</v>
       </c>
       <c r="S77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16856556</v>
       </c>
       <c r="T77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272836</v>
       </c>
       <c r="U77" s="5">
@@ -45368,10 +45370,10 @@
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="7"/>
+      <c r="X77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78">
         <v>76</v>
       </c>
@@ -45421,15 +45423,15 @@
         <v>331779</v>
       </c>
       <c r="R78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5773</v>
       </c>
       <c r="S78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16773740</v>
       </c>
       <c r="T78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273082.2</v>
       </c>
       <c r="U78" s="5">
@@ -45437,10 +45439,10 @@
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="7"/>
+      <c r="X78" s="11"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79">
         <v>77</v>
       </c>
@@ -45490,15 +45492,15 @@
         <v>340097</v>
       </c>
       <c r="R79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5767</v>
       </c>
       <c r="S79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16846056</v>
       </c>
       <c r="T79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272713.59999999998</v>
       </c>
       <c r="U79" s="5">
@@ -45506,10 +45508,10 @@
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="7"/>
+      <c r="X79" s="11"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80">
         <v>78</v>
       </c>
@@ -45559,15 +45561,15 @@
         <v>331921</v>
       </c>
       <c r="R80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5770</v>
       </c>
       <c r="S80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16735324</v>
       </c>
       <c r="T80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272402.40000000002</v>
       </c>
       <c r="U80" s="5">
@@ -45575,10 +45577,10 @@
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
-      <c r="X80" s="7"/>
+      <c r="X80" s="11"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81">
         <v>79</v>
       </c>
@@ -45628,15 +45630,15 @@
         <v>336192</v>
       </c>
       <c r="R81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5770</v>
       </c>
       <c r="S81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16843592</v>
       </c>
       <c r="T81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273476</v>
       </c>
       <c r="U81" s="5">
@@ -45644,10 +45646,10 @@
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-      <c r="X81" s="7"/>
+      <c r="X81" s="11"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
       <c r="B82">
         <v>80</v>
       </c>
@@ -45697,15 +45699,15 @@
         <v>333350</v>
       </c>
       <c r="R82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5799</v>
       </c>
       <c r="S82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16745404</v>
       </c>
       <c r="T82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272198.8</v>
       </c>
       <c r="U82" s="5">
@@ -45713,10 +45715,10 @@
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-      <c r="X82" s="7"/>
+      <c r="X82" s="11"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83">
         <v>81</v>
       </c>
@@ -45766,15 +45768,15 @@
         <v>337462</v>
       </c>
       <c r="R83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5773</v>
       </c>
       <c r="S83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16736660</v>
       </c>
       <c r="T83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>271066.40000000002</v>
       </c>
       <c r="U83" s="5">
@@ -45782,10 +45784,10 @@
       </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
-      <c r="X83" s="7"/>
+      <c r="X83" s="11"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84">
         <v>82</v>
       </c>
@@ -45835,15 +45837,15 @@
         <v>337854</v>
       </c>
       <c r="R84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5767</v>
       </c>
       <c r="S84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16878092</v>
       </c>
       <c r="T84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273881.2</v>
       </c>
       <c r="U84" s="5">
@@ -45851,10 +45853,10 @@
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
-      <c r="X84" s="7"/>
+      <c r="X84" s="11"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85">
         <v>83</v>
       </c>
@@ -45904,15 +45906,15 @@
         <v>336682</v>
       </c>
       <c r="R85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5772</v>
       </c>
       <c r="S85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16799232</v>
       </c>
       <c r="T85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272796.40000000002</v>
       </c>
       <c r="U85" s="5">
@@ -45920,10 +45922,10 @@
       </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
-      <c r="X85" s="7"/>
+      <c r="X85" s="11"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86">
         <v>84</v>
       </c>
@@ -45973,15 +45975,15 @@
         <v>340813</v>
       </c>
       <c r="R86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5774</v>
       </c>
       <c r="S86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16901780</v>
       </c>
       <c r="T86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273712.59999999998</v>
       </c>
       <c r="U86" s="5">
@@ -45989,10 +45991,10 @@
       </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
-      <c r="X86" s="7"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87">
         <v>85</v>
       </c>
@@ -46042,15 +46044,15 @@
         <v>351200</v>
       </c>
       <c r="R87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5777</v>
       </c>
       <c r="S87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16938096</v>
       </c>
       <c r="T87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273018.59999999998</v>
       </c>
       <c r="U87" s="5">
@@ -46058,10 +46060,10 @@
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
-      <c r="X87" s="7"/>
+      <c r="X87" s="11"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88">
         <v>86</v>
       </c>
@@ -46111,15 +46113,15 @@
         <v>346921</v>
       </c>
       <c r="R88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5764</v>
       </c>
       <c r="S88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16878408</v>
       </c>
       <c r="T88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272129</v>
       </c>
       <c r="U88" s="5">
@@ -46127,10 +46129,10 @@
       </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
-      <c r="X88" s="7"/>
+      <c r="X88" s="11"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89">
         <v>87</v>
       </c>
@@ -46180,15 +46182,15 @@
         <v>339025</v>
       </c>
       <c r="R89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5756</v>
       </c>
       <c r="S89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16837580</v>
       </c>
       <c r="T89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272974.8</v>
       </c>
       <c r="U89" s="5">
@@ -46196,10 +46198,10 @@
       </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
-      <c r="X89" s="7"/>
+      <c r="X89" s="11"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90">
         <v>88</v>
       </c>
@@ -46249,15 +46251,15 @@
         <v>340917</v>
       </c>
       <c r="R90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5765</v>
       </c>
       <c r="S90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16900624</v>
       </c>
       <c r="T90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273920</v>
       </c>
       <c r="U90" s="5">
@@ -46265,10 +46267,10 @@
       </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
-      <c r="X90" s="7"/>
+      <c r="X90" s="11"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91">
         <v>89</v>
       </c>
@@ -46318,15 +46320,15 @@
         <v>339032</v>
       </c>
       <c r="R91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5760</v>
       </c>
       <c r="S91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16836252</v>
       </c>
       <c r="T91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272872.59999999998</v>
       </c>
       <c r="U91" s="5">
@@ -46334,10 +46336,10 @@
       </c>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
-      <c r="X91" s="7"/>
+      <c r="X91" s="11"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92">
         <v>90</v>
       </c>
@@ -46387,15 +46389,15 @@
         <v>331179</v>
       </c>
       <c r="R92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5762</v>
       </c>
       <c r="S92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17802370.399999999</v>
       </c>
       <c r="T92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>278129.2</v>
       </c>
       <c r="U92" s="5">
@@ -46403,10 +46405,10 @@
       </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
-      <c r="X92" s="7"/>
+      <c r="X92" s="11"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B93">
@@ -46474,20 +46476,20 @@
         <v>5735.0666666666666</v>
       </c>
       <c r="V93" s="5">
-        <f t="shared" ref="V93:W93" si="8">SUM(S93:S122)</f>
+        <f t="shared" ref="V93:W93" si="11">SUM(S93:S122)</f>
         <v>2845564892.0000005</v>
       </c>
       <c r="W93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5565893</v>
       </c>
-      <c r="X93" s="7">
+      <c r="X93" s="11">
         <f>((U93-U3)/U3)*100</f>
         <v>-1.5991032210834522</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="B94">
         <v>92</v>
       </c>
@@ -46537,15 +46539,15 @@
         <v>182676</v>
       </c>
       <c r="R94">
-        <f t="shared" ref="R94:R122" si="9">AVERAGE(C94,F94,I94,L94,O94)</f>
+        <f t="shared" ref="R94:R122" si="12">AVERAGE(C94,F94,I94,L94,O94)</f>
         <v>5731</v>
       </c>
       <c r="S94">
-        <f>AVERAGE(D94,G94,J94,M94,P94)</f>
+        <f t="shared" ref="S94:S122" si="13">AVERAGE(D94,G94,J94,M94,P94)</f>
         <v>95161844.799999997</v>
       </c>
       <c r="T94">
-        <f t="shared" ref="T94:T122" si="10">AVERAGE(E94,H94,K94,N94,Q94)</f>
+        <f t="shared" ref="T94:T122" si="14">AVERAGE(E94,H94,K94,N94,Q94)</f>
         <v>184874.4</v>
       </c>
       <c r="U94" s="5">
@@ -46553,10 +46555,10 @@
       </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
-      <c r="X94" s="7"/>
+      <c r="X94" s="11"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95">
         <v>93</v>
       </c>
@@ -46606,15 +46608,15 @@
         <v>183270</v>
       </c>
       <c r="R95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5725</v>
       </c>
       <c r="S95">
-        <f>AVERAGE(D95,G95,J95,M95,P95)</f>
+        <f t="shared" si="13"/>
         <v>95553021.599999994</v>
       </c>
       <c r="T95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185675.4</v>
       </c>
       <c r="U95" s="5">
@@ -46622,10 +46624,10 @@
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
-      <c r="X95" s="7"/>
+      <c r="X95" s="11"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96">
         <v>94</v>
       </c>
@@ -46675,15 +46677,15 @@
         <v>183712</v>
       </c>
       <c r="R96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5726</v>
       </c>
       <c r="S96">
-        <f>AVERAGE(D96,G96,J96,M96,P96)</f>
+        <f t="shared" si="13"/>
         <v>95340164</v>
       </c>
       <c r="T96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185320.6</v>
       </c>
       <c r="U96" s="5">
@@ -46691,10 +46693,10 @@
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
-      <c r="X96" s="7"/>
+      <c r="X96" s="11"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97">
         <v>95</v>
       </c>
@@ -46744,15 +46746,15 @@
         <v>181495</v>
       </c>
       <c r="R97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5739</v>
       </c>
       <c r="S97">
-        <f>AVERAGE(D97,G97,J97,M97,P97)</f>
+        <f t="shared" si="13"/>
         <v>95308298.400000006</v>
       </c>
       <c r="T97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185245.8</v>
       </c>
       <c r="U97" s="5">
@@ -46760,10 +46762,10 @@
       </c>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
-      <c r="X97" s="7"/>
+      <c r="X97" s="11"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98">
         <v>96</v>
       </c>
@@ -46813,15 +46815,15 @@
         <v>184159</v>
       </c>
       <c r="R98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5733</v>
       </c>
       <c r="S98">
-        <f>AVERAGE(D98,G98,J98,M98,P98)</f>
+        <f t="shared" si="13"/>
         <v>95657112</v>
       </c>
       <c r="T98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185897.2</v>
       </c>
       <c r="U98" s="5">
@@ -46829,10 +46831,10 @@
       </c>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
-      <c r="X98" s="7"/>
+      <c r="X98" s="11"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99">
         <v>97</v>
       </c>
@@ -46882,15 +46884,15 @@
         <v>182164</v>
       </c>
       <c r="R99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5729</v>
       </c>
       <c r="S99">
-        <f>AVERAGE(D99,G99,J99,M99,P99)</f>
+        <f t="shared" si="13"/>
         <v>95254956.799999997</v>
       </c>
       <c r="T99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185062.39999999999</v>
       </c>
       <c r="U99" s="5">
@@ -46898,10 +46900,10 @@
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
-      <c r="X99" s="7"/>
+      <c r="X99" s="11"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100">
         <v>98</v>
       </c>
@@ -46951,15 +46953,15 @@
         <v>186096</v>
       </c>
       <c r="R100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5728</v>
       </c>
       <c r="S100">
-        <f>AVERAGE(D100,G100,J100,M100,P100)</f>
+        <f t="shared" si="13"/>
         <v>95748933.599999994</v>
       </c>
       <c r="T100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>186035.20000000001</v>
       </c>
       <c r="U100" s="5">
@@ -46967,10 +46969,10 @@
       </c>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
-      <c r="X100" s="7"/>
+      <c r="X100" s="11"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101">
         <v>99</v>
       </c>
@@ -47020,15 +47022,15 @@
         <v>181387</v>
       </c>
       <c r="R101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5727</v>
       </c>
       <c r="S101">
-        <f>AVERAGE(D101,G101,J101,M101,P101)</f>
+        <f t="shared" si="13"/>
         <v>95182596.799999997</v>
       </c>
       <c r="T101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185010</v>
       </c>
       <c r="U101" s="5">
@@ -47036,10 +47038,10 @@
       </c>
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
-      <c r="X101" s="7"/>
+      <c r="X101" s="11"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102">
         <v>100</v>
       </c>
@@ -47089,15 +47091,15 @@
         <v>184166</v>
       </c>
       <c r="R102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5731</v>
       </c>
       <c r="S102">
-        <f>AVERAGE(D102,G102,J102,M102,P102)</f>
+        <f t="shared" si="13"/>
         <v>95572450.400000006</v>
       </c>
       <c r="T102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185851.4</v>
       </c>
       <c r="U102" s="5">
@@ -47105,10 +47107,10 @@
       </c>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
-      <c r="X102" s="7"/>
+      <c r="X102" s="11"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103">
         <v>101</v>
       </c>
@@ -47158,15 +47160,15 @@
         <v>183227</v>
       </c>
       <c r="R103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5737</v>
       </c>
       <c r="S103">
-        <f>AVERAGE(D103,G103,J103,M103,P103)</f>
+        <f t="shared" si="13"/>
         <v>95374168</v>
       </c>
       <c r="T103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185305.8</v>
       </c>
       <c r="U103" s="5">
@@ -47174,10 +47176,10 @@
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
-      <c r="X103" s="7"/>
+      <c r="X103" s="11"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104">
         <v>102</v>
       </c>
@@ -47227,15 +47229,15 @@
         <v>182106</v>
       </c>
       <c r="R104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5750</v>
       </c>
       <c r="S104">
-        <f>AVERAGE(D104,G104,J104,M104,P104)</f>
+        <f t="shared" si="13"/>
         <v>94897148</v>
       </c>
       <c r="T104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184384.2</v>
       </c>
       <c r="U104" s="5">
@@ -47243,10 +47245,10 @@
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
-      <c r="X104" s="7"/>
+      <c r="X104" s="11"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105">
         <v>103</v>
       </c>
@@ -47296,15 +47298,15 @@
         <v>183038</v>
       </c>
       <c r="R105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5733</v>
       </c>
       <c r="S105">
-        <f>AVERAGE(D105,G105,J105,M105,P105)</f>
+        <f t="shared" si="13"/>
         <v>94974232.799999997</v>
       </c>
       <c r="T105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184577.6</v>
       </c>
       <c r="U105" s="5">
@@ -47312,10 +47314,10 @@
       </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
-      <c r="X105" s="7"/>
+      <c r="X105" s="11"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106">
         <v>104</v>
       </c>
@@ -47365,15 +47367,15 @@
         <v>183798</v>
       </c>
       <c r="R106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5738</v>
       </c>
       <c r="S106">
-        <f>AVERAGE(D106,G106,J106,M106,P106)</f>
+        <f t="shared" si="13"/>
         <v>95455184</v>
       </c>
       <c r="T106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185613.4</v>
       </c>
       <c r="U106" s="5">
@@ -47381,10 +47383,10 @@
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="7"/>
+      <c r="X106" s="11"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107">
         <v>105</v>
       </c>
@@ -47434,15 +47436,15 @@
         <v>184160</v>
       </c>
       <c r="R107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5727</v>
       </c>
       <c r="S107">
-        <f>AVERAGE(D107,G107,J107,M107,P107)</f>
+        <f t="shared" si="13"/>
         <v>95458732</v>
       </c>
       <c r="T107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185675.6</v>
       </c>
       <c r="U107" s="5">
@@ -47450,10 +47452,10 @@
       </c>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
-      <c r="X107" s="7"/>
+      <c r="X107" s="11"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108">
         <v>106</v>
       </c>
@@ -47503,15 +47505,15 @@
         <v>184011</v>
       </c>
       <c r="R108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5734</v>
       </c>
       <c r="S108">
-        <f>AVERAGE(D108,G108,J108,M108,P108)</f>
+        <f t="shared" si="13"/>
         <v>95665454.400000006</v>
       </c>
       <c r="T108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185860</v>
       </c>
       <c r="U108" s="5">
@@ -47519,10 +47521,10 @@
       </c>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
-      <c r="X108" s="7"/>
+      <c r="X108" s="11"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109">
         <v>107</v>
       </c>
@@ -47572,15 +47574,15 @@
         <v>183299</v>
       </c>
       <c r="R109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5737</v>
       </c>
       <c r="S109">
-        <f>AVERAGE(D109,G109,J109,M109,P109)</f>
+        <f t="shared" si="13"/>
         <v>95368994.400000006</v>
       </c>
       <c r="T109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185370.8</v>
       </c>
       <c r="U109" s="5">
@@ -47588,10 +47590,10 @@
       </c>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="7"/>
+      <c r="X109" s="11"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110">
         <v>108</v>
       </c>
@@ -47641,15 +47643,15 @@
         <v>184055</v>
       </c>
       <c r="R110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5735</v>
       </c>
       <c r="S110">
-        <f>AVERAGE(D110,G110,J110,M110,P110)</f>
+        <f t="shared" si="13"/>
         <v>95334656</v>
       </c>
       <c r="T110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185236.2</v>
       </c>
       <c r="U110" s="5">
@@ -47657,10 +47659,10 @@
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
-      <c r="X110" s="7"/>
+      <c r="X110" s="11"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111">
         <v>109</v>
       </c>
@@ -47710,15 +47712,15 @@
         <v>183209</v>
       </c>
       <c r="R111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5729</v>
       </c>
       <c r="S111">
-        <f>AVERAGE(D111,G111,J111,M111,P111)</f>
+        <f t="shared" si="13"/>
         <v>95367148</v>
       </c>
       <c r="T111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185295</v>
       </c>
       <c r="U111" s="5">
@@ -47726,10 +47728,10 @@
       </c>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="7"/>
+      <c r="X111" s="11"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112">
         <v>110</v>
       </c>
@@ -47779,15 +47781,15 @@
         <v>183362</v>
       </c>
       <c r="R112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5738</v>
       </c>
       <c r="S112">
-        <f>AVERAGE(D112,G112,J112,M112,P112)</f>
+        <f t="shared" si="13"/>
         <v>95175679.200000003</v>
       </c>
       <c r="T112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184978</v>
       </c>
       <c r="U112" s="5">
@@ -47795,10 +47797,10 @@
       </c>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="7"/>
+      <c r="X112" s="11"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113">
         <v>111</v>
       </c>
@@ -47848,15 +47850,15 @@
         <v>182605</v>
       </c>
       <c r="R113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5748</v>
       </c>
       <c r="S113">
-        <f>AVERAGE(D113,G113,J113,M113,P113)</f>
+        <f t="shared" si="13"/>
         <v>95309994.400000006</v>
       </c>
       <c r="T113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185178</v>
       </c>
       <c r="U113" s="5">
@@ -47864,10 +47866,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="7"/>
+      <c r="X113" s="11"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114">
         <v>112</v>
       </c>
@@ -47917,15 +47919,15 @@
         <v>184072</v>
       </c>
       <c r="R114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5735</v>
       </c>
       <c r="S114">
-        <f>AVERAGE(D114,G114,J114,M114,P114)</f>
+        <f t="shared" si="13"/>
         <v>95757666.400000006</v>
       </c>
       <c r="T114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>186289.4</v>
       </c>
       <c r="U114" s="5">
@@ -47933,10 +47935,10 @@
       </c>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
-      <c r="X114" s="7"/>
+      <c r="X114" s="11"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115">
         <v>113</v>
       </c>
@@ -47986,15 +47988,15 @@
         <v>183444</v>
       </c>
       <c r="R115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5717</v>
       </c>
       <c r="S115">
-        <f>AVERAGE(D115,G115,J115,M115,P115)</f>
+        <f t="shared" si="13"/>
         <v>95092962.400000006</v>
       </c>
       <c r="T115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184760.2</v>
       </c>
       <c r="U115" s="5">
@@ -48002,10 +48004,10 @@
       </c>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
-      <c r="X115" s="7"/>
+      <c r="X115" s="11"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116">
         <v>114</v>
       </c>
@@ -48055,15 +48057,15 @@
         <v>182856</v>
       </c>
       <c r="R116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5731</v>
       </c>
       <c r="S116">
-        <f>AVERAGE(D116,G116,J116,M116,P116)</f>
+        <f t="shared" si="13"/>
         <v>95665540.799999997</v>
       </c>
       <c r="T116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>186075</v>
       </c>
       <c r="U116" s="5">
@@ -48071,10 +48073,10 @@
       </c>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
-      <c r="X116" s="7"/>
+      <c r="X116" s="11"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117">
         <v>115</v>
       </c>
@@ -48124,15 +48126,15 @@
         <v>180814</v>
       </c>
       <c r="R117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5734</v>
       </c>
       <c r="S117">
-        <f>AVERAGE(D117,G117,J117,M117,P117)</f>
+        <f t="shared" si="13"/>
         <v>95536173.599999994</v>
       </c>
       <c r="T117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185701.2</v>
       </c>
       <c r="U117" s="5">
@@ -48140,10 +48142,10 @@
       </c>
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
-      <c r="X117" s="7"/>
+      <c r="X117" s="11"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118">
         <v>116</v>
       </c>
@@ -48193,15 +48195,15 @@
         <v>179915</v>
       </c>
       <c r="R118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5741</v>
       </c>
       <c r="S118">
-        <f>AVERAGE(D118,G118,J118,M118,P118)</f>
+        <f t="shared" si="13"/>
         <v>94796918.400000006</v>
       </c>
       <c r="T118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184277.2</v>
       </c>
       <c r="U118" s="5">
@@ -48209,10 +48211,10 @@
       </c>
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
-      <c r="X118" s="7"/>
+      <c r="X118" s="11"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119">
         <v>117</v>
       </c>
@@ -48262,15 +48264,15 @@
         <v>183280</v>
       </c>
       <c r="R119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5738</v>
       </c>
       <c r="S119">
-        <f>AVERAGE(D119,G119,J119,M119,P119)</f>
+        <f t="shared" si="13"/>
         <v>95300080</v>
       </c>
       <c r="T119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>185339.8</v>
       </c>
       <c r="U119" s="5">
@@ -48278,10 +48280,10 @@
       </c>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
-      <c r="X119" s="7"/>
+      <c r="X119" s="11"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120">
         <v>118</v>
       </c>
@@ -48331,15 +48333,15 @@
         <v>177735</v>
       </c>
       <c r="R120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5730</v>
       </c>
       <c r="S120">
-        <f>AVERAGE(D120,G120,J120,M120,P120)</f>
+        <f t="shared" si="13"/>
         <v>94957514.400000006</v>
       </c>
       <c r="T120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184624</v>
       </c>
       <c r="U120" s="5">
@@ -48347,10 +48349,10 @@
       </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
-      <c r="X120" s="7"/>
+      <c r="X120" s="11"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121">
         <v>119</v>
       </c>
@@ -48400,15 +48402,15 @@
         <v>183486</v>
       </c>
       <c r="R121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5753</v>
       </c>
       <c r="S121">
-        <f>AVERAGE(D121,G121,J121,M121,P121)</f>
+        <f t="shared" si="13"/>
         <v>94887844</v>
       </c>
       <c r="T121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>184505.8</v>
       </c>
       <c r="U121" s="5">
@@ -48416,10 +48418,10 @@
       </c>
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
-      <c r="X121" s="7"/>
+      <c r="X121" s="11"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122">
         <v>120</v>
       </c>
@@ -48469,15 +48471,15 @@
         <v>169570</v>
       </c>
       <c r="R122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5761</v>
       </c>
       <c r="S122">
-        <f>AVERAGE(D122,G122,J122,M122,P122)</f>
+        <f t="shared" si="13"/>
         <v>94156013.599999994</v>
       </c>
       <c r="T122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>183149.2</v>
       </c>
       <c r="U122" s="5">
@@ -48485,7 +48487,7 @@
       </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
-      <c r="X122" s="7"/>
+      <c r="X122" s="11"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="X123" s="1">
@@ -48496,6 +48498,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="X3:X32"/>
+    <mergeCell ref="X33:X62"/>
+    <mergeCell ref="X63:X92"/>
+    <mergeCell ref="X93:X122"/>
     <mergeCell ref="A63:A92"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A93:A122"/>
@@ -48506,10 +48512,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X3:X32"/>
-    <mergeCell ref="X33:X62"/>
-    <mergeCell ref="X63:X92"/>
-    <mergeCell ref="X93:X122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -48532,14 +48534,14 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -48694,7 +48696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFFD111-363D-1544-8DE9-4AD8CD812518}">
   <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V36" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56:AC58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48724,36 +48728,36 @@
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8">
+      <c r="C1" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>4</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10">
         <v>5</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
@@ -48832,7 +48836,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -48907,10 +48911,10 @@
         <f>SUM(T3:T32)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -48976,10 +48980,10 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -49045,10 +49049,10 @@
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="7"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -49114,10 +49118,10 @@
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -49183,10 +49187,10 @@
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -49252,10 +49256,10 @@
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>7</v>
       </c>
@@ -49321,10 +49325,10 @@
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10">
         <v>8</v>
       </c>
@@ -49390,10 +49394,10 @@
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -49459,10 +49463,10 @@
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -49528,10 +49532,10 @@
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13">
         <v>11</v>
       </c>
@@ -49597,10 +49601,10 @@
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14">
         <v>12</v>
       </c>
@@ -49666,10 +49670,10 @@
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15">
         <v>13</v>
       </c>
@@ -49735,10 +49739,10 @@
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16">
         <v>14</v>
       </c>
@@ -49804,10 +49808,10 @@
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17">
         <v>15</v>
       </c>
@@ -49873,10 +49877,10 @@
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18">
         <v>16</v>
       </c>
@@ -49942,10 +49946,10 @@
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19">
         <v>17</v>
       </c>
@@ -50011,10 +50015,10 @@
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -50080,10 +50084,10 @@
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21">
         <v>19</v>
       </c>
@@ -50149,10 +50153,10 @@
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22">
         <v>20</v>
       </c>
@@ -50218,10 +50222,10 @@
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23">
         <v>21</v>
       </c>
@@ -50287,10 +50291,10 @@
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24">
         <v>22</v>
       </c>
@@ -50356,10 +50360,10 @@
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25">
         <v>23</v>
       </c>
@@ -50425,10 +50429,10 @@
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="11"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26">
         <v>24</v>
       </c>
@@ -50494,10 +50498,10 @@
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27">
         <v>25</v>
       </c>
@@ -50563,10 +50567,10 @@
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="11"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28">
         <v>26</v>
       </c>
@@ -50632,10 +50636,10 @@
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29">
         <v>27</v>
       </c>
@@ -50701,10 +50705,10 @@
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="11"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30">
         <v>28</v>
       </c>
@@ -50770,10 +50774,10 @@
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="11"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31">
         <v>29</v>
       </c>
@@ -50839,10 +50843,10 @@
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="11"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32">
         <v>30</v>
       </c>
@@ -50908,10 +50912,10 @@
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B33">
@@ -50971,7 +50975,7 @@
         <v>298240</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="S33:T48" si="3">AVERAGE(E33,H33,K33,N33,Q33)</f>
+        <f t="shared" ref="T33:T48" si="3">AVERAGE(E33,H33,K33,N33,Q33)</f>
         <v>7456</v>
       </c>
       <c r="U33" s="5">
@@ -50986,13 +50990,13 @@
         <f t="shared" si="4"/>
         <v>279720.99999999994</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="11">
         <f>((U33-U3)/U3)*100</f>
         <v>12.012891452790202</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34">
         <v>32</v>
       </c>
@@ -51058,10 +51062,10 @@
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="11"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35">
         <v>33</v>
       </c>
@@ -51127,10 +51131,10 @@
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="11"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36">
         <v>34</v>
       </c>
@@ -51196,10 +51200,10 @@
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="11"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37">
         <v>35</v>
       </c>
@@ -51265,10 +51269,10 @@
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="11"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38">
         <v>36</v>
       </c>
@@ -51334,10 +51338,10 @@
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39">
         <v>37</v>
       </c>
@@ -51403,10 +51407,10 @@
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="11"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40">
         <v>38</v>
       </c>
@@ -51472,10 +51476,10 @@
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="11"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41">
         <v>39</v>
       </c>
@@ -51541,10 +51545,10 @@
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="11"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42">
         <v>40</v>
       </c>
@@ -51610,10 +51614,10 @@
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="11"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43">
         <v>41</v>
       </c>
@@ -51679,10 +51683,10 @@
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="11"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44">
         <v>42</v>
       </c>
@@ -51748,10 +51752,10 @@
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="11"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45">
         <v>43</v>
       </c>
@@ -51817,10 +51821,10 @@
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="7"/>
+      <c r="X45" s="11"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46">
         <v>44</v>
       </c>
@@ -51886,10 +51890,10 @@
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="11"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47">
         <v>45</v>
       </c>
@@ -51955,10 +51959,10 @@
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="11"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48">
         <v>46</v>
       </c>
@@ -52024,10 +52028,10 @@
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="7"/>
+      <c r="X48" s="11"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49">
         <v>47</v>
       </c>
@@ -52093,10 +52097,10 @@
       </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="7"/>
+      <c r="X49" s="11"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50">
         <v>48</v>
       </c>
@@ -52162,10 +52166,10 @@
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="7"/>
+      <c r="X50" s="11"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51">
         <v>49</v>
       </c>
@@ -52231,10 +52235,10 @@
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="7"/>
+      <c r="X51" s="11"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52">
         <v>50</v>
       </c>
@@ -52300,10 +52304,10 @@
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="7"/>
+      <c r="X52" s="11"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53">
         <v>51</v>
       </c>
@@ -52369,10 +52373,10 @@
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="7"/>
+      <c r="X53" s="11"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54">
         <v>52</v>
       </c>
@@ -52438,7 +52442,7 @@
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="7"/>
+      <c r="X54" s="11"/>
       <c r="AB54" t="s">
         <v>2</v>
       </c>
@@ -52450,7 +52454,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55">
         <v>53</v>
       </c>
@@ -52516,12 +52520,12 @@
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="7"/>
+      <c r="X55" s="11"/>
       <c r="AB55" t="s">
         <v>3</v>
       </c>
       <c r="AC55">
-        <f>0/1000</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD55">
@@ -52529,7 +52533,7 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56">
         <v>54</v>
       </c>
@@ -52595,20 +52599,20 @@
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="11"/>
       <c r="AB56" t="s">
         <v>5</v>
       </c>
       <c r="AC56">
-        <f>11260608/1000000</f>
-        <v>11.260608</v>
+        <f>11260608/(1024*1024)</f>
+        <v>10.73895263671875</v>
       </c>
       <c r="AD56">
         <v>279720.99999999994</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
       <c r="B57">
         <v>55</v>
       </c>
@@ -52674,20 +52678,20 @@
       </c>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="11"/>
       <c r="AB57" t="s">
         <v>22</v>
       </c>
       <c r="AC57">
-        <f>510862970.4/1000000</f>
-        <v>510.86297039999999</v>
+        <f>510862970.4/(1024*1024)</f>
+        <v>487.19689407348631</v>
       </c>
       <c r="AD57">
         <v>8103169.1999999993</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58">
         <v>56</v>
       </c>
@@ -52753,20 +52757,20 @@
       </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="11"/>
       <c r="AB58" t="s">
         <v>23</v>
       </c>
       <c r="AC58">
-        <f>5487773158.4/1000000</f>
-        <v>5487.7731583999994</v>
+        <f>5487773158.4/(1024*1024)</f>
+        <v>5233.5483154296871</v>
       </c>
       <c r="AD58">
         <v>10512287.400000002</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59">
         <v>57</v>
       </c>
@@ -52832,10 +52836,10 @@
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="11"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60">
         <v>58</v>
       </c>
@@ -52901,10 +52905,10 @@
       </c>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="7"/>
+      <c r="X60" s="11"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
       <c r="B61">
         <v>59</v>
       </c>
@@ -52970,10 +52974,10 @@
       </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="11"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
       <c r="B62">
         <v>60</v>
       </c>
@@ -53039,10 +53043,10 @@
       </c>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="11"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B63">
@@ -53117,13 +53121,13 @@
         <f t="shared" si="8"/>
         <v>8103169.1999999993</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="11">
         <f>((U63-U3)/U3)*100</f>
         <v>14.807511184365438</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64">
         <v>62</v>
       </c>
@@ -53189,10 +53193,10 @@
       </c>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="11"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
       <c r="B65">
         <v>63</v>
       </c>
@@ -53258,10 +53262,10 @@
       </c>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="11"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
       <c r="B66">
         <v>64</v>
       </c>
@@ -53327,10 +53331,10 @@
       </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="7"/>
+      <c r="X66" s="11"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67">
         <v>65</v>
       </c>
@@ -53396,10 +53400,10 @@
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="11"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
       <c r="B68">
         <v>66</v>
       </c>
@@ -53465,10 +53469,10 @@
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="7"/>
+      <c r="X68" s="11"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
       <c r="B69">
         <v>67</v>
       </c>
@@ -53534,10 +53538,10 @@
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="7"/>
+      <c r="X69" s="11"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
       <c r="B70">
         <v>68</v>
       </c>
@@ -53603,10 +53607,10 @@
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="7"/>
+      <c r="X70" s="11"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
       <c r="B71">
         <v>69</v>
       </c>
@@ -53672,10 +53676,10 @@
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="7"/>
+      <c r="X71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
       <c r="B72">
         <v>70</v>
       </c>
@@ -53741,10 +53745,10 @@
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="7"/>
+      <c r="X72" s="11"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9"/>
       <c r="B73">
         <v>71</v>
       </c>
@@ -53810,10 +53814,10 @@
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="7"/>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
       <c r="B74">
         <v>72</v>
       </c>
@@ -53879,10 +53883,10 @@
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="7"/>
+      <c r="X74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75">
         <v>73</v>
       </c>
@@ -53948,10 +53952,10 @@
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="7"/>
+      <c r="X75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
       <c r="B76">
         <v>74</v>
       </c>
@@ -54017,10 +54021,10 @@
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="7"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
       <c r="B77">
         <v>75</v>
       </c>
@@ -54086,10 +54090,10 @@
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="7"/>
+      <c r="X77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78">
         <v>76</v>
       </c>
@@ -54155,10 +54159,10 @@
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="7"/>
+      <c r="X78" s="11"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79">
         <v>77</v>
       </c>
@@ -54224,10 +54228,10 @@
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="7"/>
+      <c r="X79" s="11"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80">
         <v>78</v>
       </c>
@@ -54293,10 +54297,10 @@
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
-      <c r="X80" s="7"/>
+      <c r="X80" s="11"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81">
         <v>79</v>
       </c>
@@ -54362,10 +54366,10 @@
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-      <c r="X81" s="7"/>
+      <c r="X81" s="11"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
       <c r="B82">
         <v>80</v>
       </c>
@@ -54431,10 +54435,10 @@
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-      <c r="X82" s="7"/>
+      <c r="X82" s="11"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83">
         <v>81</v>
       </c>
@@ -54500,10 +54504,10 @@
       </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
-      <c r="X83" s="7"/>
+      <c r="X83" s="11"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84">
         <v>82</v>
       </c>
@@ -54569,10 +54573,10 @@
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
-      <c r="X84" s="7"/>
+      <c r="X84" s="11"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85">
         <v>83</v>
       </c>
@@ -54638,10 +54642,10 @@
       </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
-      <c r="X85" s="7"/>
+      <c r="X85" s="11"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86">
         <v>84</v>
       </c>
@@ -54707,10 +54711,10 @@
       </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
-      <c r="X86" s="7"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87">
         <v>85</v>
       </c>
@@ -54776,10 +54780,10 @@
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
-      <c r="X87" s="7"/>
+      <c r="X87" s="11"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88">
         <v>86</v>
       </c>
@@ -54845,10 +54849,10 @@
       </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
-      <c r="X88" s="7"/>
+      <c r="X88" s="11"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89">
         <v>87</v>
       </c>
@@ -54914,10 +54918,10 @@
       </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
-      <c r="X89" s="7"/>
+      <c r="X89" s="11"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90">
         <v>88</v>
       </c>
@@ -54983,10 +54987,10 @@
       </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
-      <c r="X90" s="7"/>
+      <c r="X90" s="11"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91">
         <v>89</v>
       </c>
@@ -55052,10 +55056,10 @@
       </c>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
-      <c r="X91" s="7"/>
+      <c r="X91" s="11"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92">
         <v>90</v>
       </c>
@@ -55121,10 +55125,10 @@
       </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
-      <c r="X92" s="7"/>
+      <c r="X92" s="11"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B93">
@@ -55199,13 +55203,13 @@
         <f t="shared" si="9"/>
         <v>10512287.400000002</v>
       </c>
-      <c r="X93" s="7">
+      <c r="X93" s="11">
         <f>((U93-U3)/U3)*100</f>
         <v>14.220331999058155</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="B94">
         <v>92</v>
       </c>
@@ -55263,7 +55267,7 @@
         <v>189116624</v>
       </c>
       <c r="T94">
-        <f t="shared" ref="S93:T122" si="11">AVERAGE(E94,H94,K94,N94,Q94)</f>
+        <f t="shared" ref="T94:T122" si="11">AVERAGE(E94,H94,K94,N94,Q94)</f>
         <v>359602</v>
       </c>
       <c r="U94" s="5">
@@ -55271,10 +55275,10 @@
       </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
-      <c r="X94" s="7"/>
+      <c r="X94" s="11"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95">
         <v>93</v>
       </c>
@@ -55340,10 +55344,10 @@
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
-      <c r="X95" s="7"/>
+      <c r="X95" s="11"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96">
         <v>94</v>
       </c>
@@ -55409,10 +55413,10 @@
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
-      <c r="X96" s="7"/>
+      <c r="X96" s="11"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97">
         <v>95</v>
       </c>
@@ -55478,10 +55482,10 @@
       </c>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
-      <c r="X97" s="7"/>
+      <c r="X97" s="11"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98">
         <v>96</v>
       </c>
@@ -55547,10 +55551,10 @@
       </c>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
-      <c r="X98" s="7"/>
+      <c r="X98" s="11"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99">
         <v>97</v>
       </c>
@@ -55616,10 +55620,10 @@
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
-      <c r="X99" s="7"/>
+      <c r="X99" s="11"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100">
         <v>98</v>
       </c>
@@ -55685,10 +55689,10 @@
       </c>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
-      <c r="X100" s="7"/>
+      <c r="X100" s="11"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101">
         <v>99</v>
       </c>
@@ -55754,10 +55758,10 @@
       </c>
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
-      <c r="X101" s="7"/>
+      <c r="X101" s="11"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102">
         <v>100</v>
       </c>
@@ -55823,10 +55827,10 @@
       </c>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
-      <c r="X102" s="7"/>
+      <c r="X102" s="11"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103">
         <v>101</v>
       </c>
@@ -55892,10 +55896,10 @@
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
-      <c r="X103" s="7"/>
+      <c r="X103" s="11"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104">
         <v>102</v>
       </c>
@@ -55961,10 +55965,10 @@
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
-      <c r="X104" s="7"/>
+      <c r="X104" s="11"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105">
         <v>103</v>
       </c>
@@ -56030,10 +56034,10 @@
       </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
-      <c r="X105" s="7"/>
+      <c r="X105" s="11"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106">
         <v>104</v>
       </c>
@@ -56099,10 +56103,10 @@
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="7"/>
+      <c r="X106" s="11"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107">
         <v>105</v>
       </c>
@@ -56168,10 +56172,10 @@
       </c>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
-      <c r="X107" s="7"/>
+      <c r="X107" s="11"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108">
         <v>106</v>
       </c>
@@ -56237,10 +56241,10 @@
       </c>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
-      <c r="X108" s="7"/>
+      <c r="X108" s="11"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109">
         <v>107</v>
       </c>
@@ -56306,10 +56310,10 @@
       </c>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="7"/>
+      <c r="X109" s="11"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110">
         <v>108</v>
       </c>
@@ -56375,10 +56379,10 @@
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
-      <c r="X110" s="7"/>
+      <c r="X110" s="11"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111">
         <v>109</v>
       </c>
@@ -56444,10 +56448,10 @@
       </c>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="7"/>
+      <c r="X111" s="11"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112">
         <v>110</v>
       </c>
@@ -56513,10 +56517,10 @@
       </c>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="7"/>
+      <c r="X112" s="11"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113">
         <v>111</v>
       </c>
@@ -56582,10 +56586,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="7"/>
+      <c r="X113" s="11"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114">
         <v>112</v>
       </c>
@@ -56651,10 +56655,10 @@
       </c>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
-      <c r="X114" s="7"/>
+      <c r="X114" s="11"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115">
         <v>113</v>
       </c>
@@ -56720,10 +56724,10 @@
       </c>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
-      <c r="X115" s="7"/>
+      <c r="X115" s="11"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116">
         <v>114</v>
       </c>
@@ -56789,10 +56793,10 @@
       </c>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
-      <c r="X116" s="7"/>
+      <c r="X116" s="11"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117">
         <v>115</v>
       </c>
@@ -56858,10 +56862,10 @@
       </c>
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
-      <c r="X117" s="7"/>
+      <c r="X117" s="11"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118">
         <v>116</v>
       </c>
@@ -56927,10 +56931,10 @@
       </c>
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
-      <c r="X118" s="7"/>
+      <c r="X118" s="11"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119">
         <v>117</v>
       </c>
@@ -56996,10 +57000,10 @@
       </c>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
-      <c r="X119" s="7"/>
+      <c r="X119" s="11"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120">
         <v>118</v>
       </c>
@@ -57065,10 +57069,10 @@
       </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
-      <c r="X120" s="7"/>
+      <c r="X120" s="11"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121">
         <v>119</v>
       </c>
@@ -57134,10 +57138,10 @@
       </c>
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
-      <c r="X121" s="7"/>
+      <c r="X121" s="11"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122">
         <v>120</v>
       </c>
@@ -57203,7 +57207,7 @@
       </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
-      <c r="X122" s="7"/>
+      <c r="X122" s="11"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="X123" s="1">
@@ -57214,6 +57218,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="X93:X122"/>
+    <mergeCell ref="X63:X92"/>
+    <mergeCell ref="X33:X62"/>
+    <mergeCell ref="X3:X32"/>
+    <mergeCell ref="A33:A62"/>
+    <mergeCell ref="A63:A92"/>
+    <mergeCell ref="A93:A122"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A3:A32"/>
     <mergeCell ref="C1:E1"/>
@@ -57221,13 +57232,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X93:X122"/>
-    <mergeCell ref="X63:X92"/>
-    <mergeCell ref="X33:X62"/>
-    <mergeCell ref="X3:X32"/>
-    <mergeCell ref="A33:A62"/>
-    <mergeCell ref="A63:A92"/>
-    <mergeCell ref="A93:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -57250,14 +57254,14 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -57412,7 +57416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A95542-B92B-CA46-805B-20C494E61837}">
   <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U40" workbookViewId="0">
+      <selection activeCell="AC59" sqref="AC57:AC59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57441,36 +57447,36 @@
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8">
+      <c r="C1" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>4</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10">
         <v>5</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
@@ -57549,7 +57555,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -57624,10 +57630,10 @@
         <f>SUM(T3:T32)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -57693,10 +57699,10 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -57762,10 +57768,10 @@
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="7"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -57831,10 +57837,10 @@
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -57900,10 +57906,10 @@
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -57969,10 +57975,10 @@
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>7</v>
       </c>
@@ -58038,10 +58044,10 @@
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10">
         <v>8</v>
       </c>
@@ -58107,10 +58113,10 @@
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -58176,10 +58182,10 @@
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -58245,10 +58251,10 @@
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13">
         <v>11</v>
       </c>
@@ -58314,10 +58320,10 @@
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14">
         <v>12</v>
       </c>
@@ -58383,10 +58389,10 @@
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15">
         <v>13</v>
       </c>
@@ -58452,10 +58458,10 @@
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16">
         <v>14</v>
       </c>
@@ -58521,10 +58527,10 @@
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17">
         <v>15</v>
       </c>
@@ -58590,10 +58596,10 @@
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18">
         <v>16</v>
       </c>
@@ -58659,10 +58665,10 @@
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19">
         <v>17</v>
       </c>
@@ -58728,10 +58734,10 @@
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -58797,10 +58803,10 @@
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21">
         <v>19</v>
       </c>
@@ -58866,10 +58872,10 @@
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22">
         <v>20</v>
       </c>
@@ -58935,10 +58941,10 @@
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23">
         <v>21</v>
       </c>
@@ -59004,10 +59010,10 @@
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24">
         <v>22</v>
       </c>
@@ -59073,10 +59079,10 @@
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25">
         <v>23</v>
       </c>
@@ -59142,10 +59148,10 @@
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="11"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26">
         <v>24</v>
       </c>
@@ -59211,10 +59217,10 @@
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27">
         <v>25</v>
       </c>
@@ -59280,10 +59286,10 @@
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="11"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28">
         <v>26</v>
       </c>
@@ -59349,10 +59355,10 @@
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29">
         <v>27</v>
       </c>
@@ -59418,10 +59424,10 @@
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="11"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30">
         <v>28</v>
       </c>
@@ -59487,10 +59493,10 @@
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="11"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31">
         <v>29</v>
       </c>
@@ -59556,10 +59562,10 @@
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="11"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32">
         <v>30</v>
       </c>
@@ -59625,10 +59631,10 @@
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B33">
@@ -59703,13 +59709,13 @@
         <f t="shared" si="3"/>
         <v>251563.00000000003</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="11">
         <f>((U33-U3)/U3)*100</f>
         <v>1.0866632692826454</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34">
         <v>32</v>
       </c>
@@ -59775,10 +59781,10 @@
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="11"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35">
         <v>33</v>
       </c>
@@ -59844,10 +59850,10 @@
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="11"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36">
         <v>34</v>
       </c>
@@ -59913,10 +59919,10 @@
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="11"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37">
         <v>35</v>
       </c>
@@ -59982,10 +59988,10 @@
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="11"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38">
         <v>36</v>
       </c>
@@ -60051,10 +60057,10 @@
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39">
         <v>37</v>
       </c>
@@ -60120,10 +60126,10 @@
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="11"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40">
         <v>38</v>
       </c>
@@ -60189,10 +60195,10 @@
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="11"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41">
         <v>39</v>
       </c>
@@ -60258,10 +60264,10 @@
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="11"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42">
         <v>40</v>
       </c>
@@ -60327,10 +60333,10 @@
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="11"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43">
         <v>41</v>
       </c>
@@ -60396,10 +60402,10 @@
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="11"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44">
         <v>42</v>
       </c>
@@ -60465,10 +60471,10 @@
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="11"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45">
         <v>43</v>
       </c>
@@ -60534,10 +60540,10 @@
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="7"/>
+      <c r="X45" s="11"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46">
         <v>44</v>
       </c>
@@ -60603,10 +60609,10 @@
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="11"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47">
         <v>45</v>
       </c>
@@ -60672,10 +60678,10 @@
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="11"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48">
         <v>46</v>
       </c>
@@ -60741,10 +60747,10 @@
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="7"/>
+      <c r="X48" s="11"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49">
         <v>47</v>
       </c>
@@ -60810,10 +60816,10 @@
       </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="7"/>
+      <c r="X49" s="11"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50">
         <v>48</v>
       </c>
@@ -60879,10 +60885,10 @@
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="7"/>
+      <c r="X50" s="11"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51">
         <v>49</v>
       </c>
@@ -60948,10 +60954,10 @@
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="7"/>
+      <c r="X51" s="11"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52">
         <v>50</v>
       </c>
@@ -61017,10 +61023,10 @@
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="7"/>
+      <c r="X52" s="11"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53">
         <v>51</v>
       </c>
@@ -61086,10 +61092,10 @@
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="7"/>
+      <c r="X53" s="11"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54">
         <v>52</v>
       </c>
@@ -61155,10 +61161,10 @@
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="7"/>
+      <c r="X54" s="11"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55">
         <v>53</v>
       </c>
@@ -61224,7 +61230,7 @@
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="7"/>
+      <c r="X55" s="11"/>
       <c r="AB55" t="s">
         <v>2</v>
       </c>
@@ -61236,7 +61242,7 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56">
         <v>54</v>
       </c>
@@ -61302,12 +61308,12 @@
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="11"/>
       <c r="AB56" t="s">
         <v>3</v>
       </c>
       <c r="AC56">
-        <f>0/1000</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD56">
@@ -61315,7 +61321,7 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
       <c r="B57">
         <v>55</v>
       </c>
@@ -61381,20 +61387,20 @@
       </c>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="11"/>
       <c r="AB57" t="s">
         <v>5</v>
       </c>
       <c r="AC57">
-        <f>10124207.2/1000000</f>
-        <v>10.124207199999999</v>
+        <f>10124207.2/(1024*1024)</f>
+        <v>9.6551963806152337</v>
       </c>
       <c r="AD57">
         <v>251563.00000000003</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58">
         <v>56</v>
       </c>
@@ -61460,20 +61466,20 @@
       </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="11"/>
       <c r="AB58" t="s">
         <v>22</v>
       </c>
       <c r="AC58">
-        <f>98036230.4/1000000</f>
-        <v>98.036230400000008</v>
+        <f>98036230.4/(1024*1024)</f>
+        <v>93.494635009765631</v>
       </c>
       <c r="AD58">
         <v>1991534.5999999999</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59">
         <v>57</v>
       </c>
@@ -61539,20 +61545,20 @@
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="11"/>
       <c r="AB59" t="s">
         <v>23</v>
       </c>
       <c r="AC59">
-        <f>806628797.6/1000000</f>
-        <v>806.62879759999998</v>
+        <f>806628797.6/(1024*1024)</f>
+        <v>769.26116714477541</v>
       </c>
       <c r="AD59">
         <v>1723139.0000000002</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60">
         <v>58</v>
       </c>
@@ -61618,10 +61624,10 @@
       </c>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="7"/>
+      <c r="X60" s="11"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
       <c r="B61">
         <v>59</v>
       </c>
@@ -61687,10 +61693,10 @@
       </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="11"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
       <c r="B62">
         <v>60</v>
       </c>
@@ -61756,10 +61762,10 @@
       </c>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="11"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B63">
@@ -61834,13 +61840,13 @@
         <f t="shared" si="4"/>
         <v>1991534.5999999999</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="11">
         <f>((U63-U3)/U3)*100</f>
         <v>5.0211337270301799</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64">
         <v>62</v>
       </c>
@@ -61906,10 +61912,10 @@
       </c>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="11"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
       <c r="B65">
         <v>63</v>
       </c>
@@ -61975,10 +61981,10 @@
       </c>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="11"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
       <c r="B66">
         <v>64</v>
       </c>
@@ -62044,10 +62050,10 @@
       </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="7"/>
+      <c r="X66" s="11"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67">
         <v>65</v>
       </c>
@@ -62113,10 +62119,10 @@
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="11"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
       <c r="B68">
         <v>66</v>
       </c>
@@ -62182,10 +62188,10 @@
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="7"/>
+      <c r="X68" s="11"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
       <c r="B69">
         <v>67</v>
       </c>
@@ -62251,10 +62257,10 @@
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="7"/>
+      <c r="X69" s="11"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
       <c r="B70">
         <v>68</v>
       </c>
@@ -62320,10 +62326,10 @@
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="7"/>
+      <c r="X70" s="11"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
       <c r="B71">
         <v>69</v>
       </c>
@@ -62389,10 +62395,10 @@
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="7"/>
+      <c r="X71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
       <c r="B72">
         <v>70</v>
       </c>
@@ -62458,10 +62464,10 @@
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="7"/>
+      <c r="X72" s="11"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9"/>
       <c r="B73">
         <v>71</v>
       </c>
@@ -62527,10 +62533,10 @@
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="7"/>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
       <c r="B74">
         <v>72</v>
       </c>
@@ -62596,10 +62602,10 @@
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="7"/>
+      <c r="X74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75">
         <v>73</v>
       </c>
@@ -62665,10 +62671,10 @@
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="7"/>
+      <c r="X75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
       <c r="B76">
         <v>74</v>
       </c>
@@ -62734,10 +62740,10 @@
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="7"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
       <c r="B77">
         <v>75</v>
       </c>
@@ -62803,10 +62809,10 @@
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="7"/>
+      <c r="X77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78">
         <v>76</v>
       </c>
@@ -62872,10 +62878,10 @@
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="7"/>
+      <c r="X78" s="11"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79">
         <v>77</v>
       </c>
@@ -62941,10 +62947,10 @@
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="7"/>
+      <c r="X79" s="11"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80">
         <v>78</v>
       </c>
@@ -63010,10 +63016,10 @@
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
-      <c r="X80" s="7"/>
+      <c r="X80" s="11"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81">
         <v>79</v>
       </c>
@@ -63079,10 +63085,10 @@
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-      <c r="X81" s="7"/>
+      <c r="X81" s="11"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
       <c r="B82">
         <v>80</v>
       </c>
@@ -63148,10 +63154,10 @@
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-      <c r="X82" s="7"/>
+      <c r="X82" s="11"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83">
         <v>81</v>
       </c>
@@ -63217,10 +63223,10 @@
       </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
-      <c r="X83" s="7"/>
+      <c r="X83" s="11"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84">
         <v>82</v>
       </c>
@@ -63286,10 +63292,10 @@
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
-      <c r="X84" s="7"/>
+      <c r="X84" s="11"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85">
         <v>83</v>
       </c>
@@ -63355,10 +63361,10 @@
       </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
-      <c r="X85" s="7"/>
+      <c r="X85" s="11"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86">
         <v>84</v>
       </c>
@@ -63424,10 +63430,10 @@
       </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
-      <c r="X86" s="7"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87">
         <v>85</v>
       </c>
@@ -63493,10 +63499,10 @@
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
-      <c r="X87" s="7"/>
+      <c r="X87" s="11"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88">
         <v>86</v>
       </c>
@@ -63562,10 +63568,10 @@
       </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
-      <c r="X88" s="7"/>
+      <c r="X88" s="11"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89">
         <v>87</v>
       </c>
@@ -63631,10 +63637,10 @@
       </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
-      <c r="X89" s="7"/>
+      <c r="X89" s="11"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90">
         <v>88</v>
       </c>
@@ -63700,10 +63706,10 @@
       </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
-      <c r="X90" s="7"/>
+      <c r="X90" s="11"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91">
         <v>89</v>
       </c>
@@ -63769,10 +63775,10 @@
       </c>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
-      <c r="X91" s="7"/>
+      <c r="X91" s="11"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92">
         <v>90</v>
       </c>
@@ -63838,10 +63844,10 @@
       </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
-      <c r="X92" s="7"/>
+      <c r="X92" s="11"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B93">
@@ -63916,13 +63922,13 @@
         <f t="shared" si="8"/>
         <v>1723139.0000000002</v>
       </c>
-      <c r="X93" s="7">
+      <c r="X93" s="11">
         <f>((U93-U3)/U3)*100</f>
         <v>5.9983812464402453</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="B94">
         <v>92</v>
       </c>
@@ -63988,10 +63994,10 @@
       </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
-      <c r="X94" s="7"/>
+      <c r="X94" s="11"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95">
         <v>93</v>
       </c>
@@ -64057,10 +64063,10 @@
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
-      <c r="X95" s="7"/>
+      <c r="X95" s="11"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96">
         <v>94</v>
       </c>
@@ -64126,10 +64132,10 @@
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
-      <c r="X96" s="7"/>
+      <c r="X96" s="11"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97">
         <v>95</v>
       </c>
@@ -64195,10 +64201,10 @@
       </c>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
-      <c r="X97" s="7"/>
+      <c r="X97" s="11"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98">
         <v>96</v>
       </c>
@@ -64264,10 +64270,10 @@
       </c>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
-      <c r="X98" s="7"/>
+      <c r="X98" s="11"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99">
         <v>97</v>
       </c>
@@ -64333,10 +64339,10 @@
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
-      <c r="X99" s="7"/>
+      <c r="X99" s="11"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100">
         <v>98</v>
       </c>
@@ -64402,10 +64408,10 @@
       </c>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
-      <c r="X100" s="7"/>
+      <c r="X100" s="11"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101">
         <v>99</v>
       </c>
@@ -64471,10 +64477,10 @@
       </c>
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
-      <c r="X101" s="7"/>
+      <c r="X101" s="11"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102">
         <v>100</v>
       </c>
@@ -64540,10 +64546,10 @@
       </c>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
-      <c r="X102" s="7"/>
+      <c r="X102" s="11"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103">
         <v>101</v>
       </c>
@@ -64609,10 +64615,10 @@
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
-      <c r="X103" s="7"/>
+      <c r="X103" s="11"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104">
         <v>102</v>
       </c>
@@ -64678,10 +64684,10 @@
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
-      <c r="X104" s="7"/>
+      <c r="X104" s="11"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105">
         <v>103</v>
       </c>
@@ -64747,10 +64753,10 @@
       </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
-      <c r="X105" s="7"/>
+      <c r="X105" s="11"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106">
         <v>104</v>
       </c>
@@ -64816,10 +64822,10 @@
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="7"/>
+      <c r="X106" s="11"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107">
         <v>105</v>
       </c>
@@ -64885,10 +64891,10 @@
       </c>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
-      <c r="X107" s="7"/>
+      <c r="X107" s="11"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108">
         <v>106</v>
       </c>
@@ -64954,10 +64960,10 @@
       </c>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
-      <c r="X108" s="7"/>
+      <c r="X108" s="11"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109">
         <v>107</v>
       </c>
@@ -65023,10 +65029,10 @@
       </c>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="7"/>
+      <c r="X109" s="11"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110">
         <v>108</v>
       </c>
@@ -65092,10 +65098,10 @@
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
-      <c r="X110" s="7"/>
+      <c r="X110" s="11"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111">
         <v>109</v>
       </c>
@@ -65161,10 +65167,10 @@
       </c>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="7"/>
+      <c r="X111" s="11"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112">
         <v>110</v>
       </c>
@@ -65230,10 +65236,10 @@
       </c>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="7"/>
+      <c r="X112" s="11"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113">
         <v>111</v>
       </c>
@@ -65299,10 +65305,10 @@
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="7"/>
+      <c r="X113" s="11"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114">
         <v>112</v>
       </c>
@@ -65368,10 +65374,10 @@
       </c>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
-      <c r="X114" s="7"/>
+      <c r="X114" s="11"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115">
         <v>113</v>
       </c>
@@ -65437,10 +65443,10 @@
       </c>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
-      <c r="X115" s="7"/>
+      <c r="X115" s="11"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116">
         <v>114</v>
       </c>
@@ -65506,10 +65512,10 @@
       </c>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
-      <c r="X116" s="7"/>
+      <c r="X116" s="11"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117">
         <v>115</v>
       </c>
@@ -65575,10 +65581,10 @@
       </c>
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
-      <c r="X117" s="7"/>
+      <c r="X117" s="11"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118">
         <v>116</v>
       </c>
@@ -65644,10 +65650,10 @@
       </c>
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
-      <c r="X118" s="7"/>
+      <c r="X118" s="11"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119">
         <v>117</v>
       </c>
@@ -65713,10 +65719,10 @@
       </c>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
-      <c r="X119" s="7"/>
+      <c r="X119" s="11"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120">
         <v>118</v>
       </c>
@@ -65782,10 +65788,10 @@
       </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
-      <c r="X120" s="7"/>
+      <c r="X120" s="11"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121">
         <v>119</v>
       </c>
@@ -65851,10 +65857,10 @@
       </c>
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
-      <c r="X121" s="7"/>
+      <c r="X121" s="11"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122">
         <v>120</v>
       </c>
@@ -65920,7 +65926,7 @@
       </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
-      <c r="X122" s="7"/>
+      <c r="X122" s="11"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="X123" s="1">
@@ -65931,6 +65937,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="X93:X122"/>
+    <mergeCell ref="X63:X92"/>
+    <mergeCell ref="X33:X62"/>
+    <mergeCell ref="X3:X32"/>
+    <mergeCell ref="A33:A62"/>
+    <mergeCell ref="A63:A92"/>
+    <mergeCell ref="A93:A122"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A3:A32"/>
     <mergeCell ref="C1:E1"/>
@@ -65938,13 +65951,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X93:X122"/>
-    <mergeCell ref="X63:X92"/>
-    <mergeCell ref="X33:X62"/>
-    <mergeCell ref="X3:X32"/>
-    <mergeCell ref="A33:A62"/>
-    <mergeCell ref="A63:A92"/>
-    <mergeCell ref="A93:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -65967,14 +65973,14 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
